--- a/Task11_03/Сессия 1/Заказы_import.xlsx
+++ b/Task11_03/Сессия 1/Заказы_import.xlsx
@@ -217,30 +217,29 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Times Roman"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
     </font>
     <font>
+      <name val="Times Roman"/>
+      <color theme="1"/>
       <sz val="12.000000"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="12.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,11 +253,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -273,7 +272,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -370,10 +369,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Angsana New"/>
@@ -404,10 +403,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Cordia New"/>
@@ -824,7 +823,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.83203125"/>
-    <col customWidth="1" min="2" max="2" width="22.5"/>
+    <col customWidth="1" min="2" max="2" width="31.8515625"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="15.00390625"/>
     <col customWidth="1" min="4" max="4" width="13.83203125"/>
     <col customWidth="1" min="5" max="5" style="1" width="12"/>
@@ -2315,7 +2314,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2414,7 +2413,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>